--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Uniform.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Uniform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C85548-9CC8-4C6A-B3D2-225575493012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A17CD-39A8-452B-BBEF-9105D8F3EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>company_code</t>
   </si>
@@ -70,6 +70,54 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>project_code</t>
+  </si>
+  <si>
+    <t>projob_code</t>
+  </si>
+  <si>
+    <t>proequipmenttype_code</t>
+  </si>
+  <si>
+    <t>รหัสโครงการ</t>
+  </si>
+  <si>
+    <t>รหัสงาน</t>
+  </si>
+  <si>
+    <t>รหัสรูปแบบการจ่าย</t>
+  </si>
+  <si>
+    <t>empuniform_by</t>
+  </si>
+  <si>
+    <t>empuniform_payperiod</t>
+  </si>
+  <si>
+    <t>empuniform_payamount</t>
+  </si>
+  <si>
+    <t>empuniform_period</t>
+  </si>
+  <si>
+    <t>ผู้ขอเบิก</t>
+  </si>
+  <si>
+    <t>ผ่อนชำระ(จำนวนงวด)</t>
+  </si>
+  <si>
+    <t>ผ่อนชำระ(จำนวนเงิน)</t>
+  </si>
+  <si>
+    <t>งวดที่เริ่มตัดเงิน</t>
+  </si>
+  <si>
+    <t>empuniform_amount</t>
+  </si>
+  <si>
+    <t>จำนวนเงิน</t>
   </si>
 </sst>
 </file>
@@ -178,9 +226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,9 +266,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,26 +301,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,26 +336,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,25 +512,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,30 +547,37 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6">
-        <v>45077</v>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -562,23 +589,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,16 +620,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,17 +663,41 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,10 +707,14 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>45077</v>
       </c>
     </row>
@@ -648,7 +731,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
